--- a/adelantefinal.xlsx
+++ b/adelantefinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximena\Desktop\IABO\Finaliabo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41E911-E971-4298-BD58-2C2D11269B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E472D6-708B-4941-A3A2-61B6C628829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6472D79-6F6D-4008-9D39-6BA7743F76A4}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3169CA2-4D69-403E-BCD4-AABAEF884BC9}">
-  <dimension ref="A1:B2806"/>
+  <dimension ref="A1:B2700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2687" workbookViewId="0">
-      <selection activeCell="E2706" sqref="E2706"/>
+    <sheetView tabSelected="1" topLeftCell="A2748" workbookViewId="0">
+      <selection activeCell="C2753" sqref="C2753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21990,366 +21990,6 @@
         <v>-6.4580000000000002</v>
       </c>
     </row>
-    <row r="2762" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2762">
-        <v>-6.5430000000000001</v>
-      </c>
-      <c r="B2762">
-        <v>-8.85</v>
-      </c>
-    </row>
-    <row r="2763" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2763">
-        <v>-2.1850000000000001</v>
-      </c>
-      <c r="B2763">
-        <v>-8.5690000000000008</v>
-      </c>
-    </row>
-    <row r="2764" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2764">
-        <v>-3.6619999999999999</v>
-      </c>
-      <c r="B2764">
-        <v>-9.2040000000000006</v>
-      </c>
-    </row>
-    <row r="2765" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2765">
-        <v>-11.401</v>
-      </c>
-      <c r="B2765">
-        <v>-8.4960000000000004</v>
-      </c>
-    </row>
-    <row r="2766" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2766">
-        <v>-16.283999999999999</v>
-      </c>
-      <c r="B2766">
-        <v>-6.2869999999999999</v>
-      </c>
-    </row>
-    <row r="2767" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2767">
-        <v>-22.51</v>
-      </c>
-      <c r="B2767">
-        <v>-5.9569999999999999</v>
-      </c>
-    </row>
-    <row r="2768" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2768">
-        <v>-31.177</v>
-      </c>
-      <c r="B2768">
-        <v>-8.0440000000000005</v>
-      </c>
-    </row>
-    <row r="2769" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2769">
-        <v>-35.01</v>
-      </c>
-      <c r="B2769">
-        <v>-8.1180000000000003</v>
-      </c>
-    </row>
-    <row r="2770" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2770">
-        <v>-46.997</v>
-      </c>
-      <c r="B2770">
-        <v>-11.035</v>
-      </c>
-    </row>
-    <row r="2771" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2771">
-        <v>-49.719000000000001</v>
-      </c>
-      <c r="B2771">
-        <v>-15.1</v>
-      </c>
-    </row>
-    <row r="2772" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2772">
-        <v>-50.768999999999998</v>
-      </c>
-      <c r="B2772">
-        <v>-14.893000000000001</v>
-      </c>
-    </row>
-    <row r="2773" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2773">
-        <v>-51.66</v>
-      </c>
-      <c r="B2773">
-        <v>-15.002000000000001</v>
-      </c>
-    </row>
-    <row r="2774" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2774">
-        <v>-47.558999999999997</v>
-      </c>
-      <c r="B2774">
-        <v>-13.94</v>
-      </c>
-    </row>
-    <row r="2775" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2775">
-        <v>-45.006999999999998</v>
-      </c>
-      <c r="B2775">
-        <v>-12.537000000000001</v>
-      </c>
-    </row>
-    <row r="2776" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2776">
-        <v>-40.93</v>
-      </c>
-      <c r="B2776">
-        <v>-9.1549999999999994</v>
-      </c>
-    </row>
-    <row r="2777" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2777">
-        <v>-35.901000000000003</v>
-      </c>
-      <c r="B2777">
-        <v>-9.8140000000000001</v>
-      </c>
-    </row>
-    <row r="2778" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2778">
-        <v>-32.738999999999997</v>
-      </c>
-      <c r="B2778">
-        <v>-8.6180000000000003</v>
-      </c>
-    </row>
-    <row r="2779" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2779">
-        <v>-26.367000000000001</v>
-      </c>
-      <c r="B2779">
-        <v>-8.5690000000000008</v>
-      </c>
-    </row>
-    <row r="2780" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2780">
-        <v>-16.785</v>
-      </c>
-      <c r="B2780">
-        <v>-11.646000000000001</v>
-      </c>
-    </row>
-    <row r="2781" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2781">
-        <v>-10.217000000000001</v>
-      </c>
-      <c r="B2781">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="2782" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2782">
-        <v>-7.08</v>
-      </c>
-      <c r="B2782">
-        <v>-10.083</v>
-      </c>
-    </row>
-    <row r="2783" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2783">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="B2783">
-        <v>-8.7159999999999993</v>
-      </c>
-    </row>
-    <row r="2784" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2784">
-        <v>2.8439999999999999</v>
-      </c>
-      <c r="B2784">
-        <v>-7.0919999999999996</v>
-      </c>
-    </row>
-    <row r="2785" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2785">
-        <v>-2.673</v>
-      </c>
-      <c r="B2785">
-        <v>-5.6520000000000001</v>
-      </c>
-    </row>
-    <row r="2786" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2786">
-        <v>-5.9939999999999998</v>
-      </c>
-      <c r="B2786">
-        <v>-4.468</v>
-      </c>
-    </row>
-    <row r="2787" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2787">
-        <v>-12.476000000000001</v>
-      </c>
-      <c r="B2787">
-        <v>-5.4930000000000003</v>
-      </c>
-    </row>
-    <row r="2788" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2788">
-        <v>-20.093</v>
-      </c>
-      <c r="B2788">
-        <v>-5.4569999999999999</v>
-      </c>
-    </row>
-    <row r="2789" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2789">
-        <v>-23.352</v>
-      </c>
-      <c r="B2789">
-        <v>-4.7610000000000001</v>
-      </c>
-    </row>
-    <row r="2790" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2790">
-        <v>-26.88</v>
-      </c>
-      <c r="B2790">
-        <v>-5.798</v>
-      </c>
-    </row>
-    <row r="2791" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2791">
-        <v>-33.691000000000003</v>
-      </c>
-      <c r="B2791">
-        <v>-6.7140000000000004</v>
-      </c>
-    </row>
-    <row r="2792" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2792">
-        <v>-36.609000000000002</v>
-      </c>
-      <c r="B2792">
-        <v>-7.1289999999999996</v>
-      </c>
-    </row>
-    <row r="2793" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2793">
-        <v>-42.566000000000003</v>
-      </c>
-      <c r="B2793">
-        <v>-9.8510000000000009</v>
-      </c>
-    </row>
-    <row r="2794" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2794">
-        <v>-45.02</v>
-      </c>
-      <c r="B2794">
-        <v>-13.33</v>
-      </c>
-    </row>
-    <row r="2795" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2795">
-        <v>-46.923999999999999</v>
-      </c>
-      <c r="B2795">
-        <v>-13.122999999999999</v>
-      </c>
-    </row>
-    <row r="2796" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2796">
-        <v>-41.332999999999998</v>
-      </c>
-      <c r="B2796">
-        <v>-11.510999999999999</v>
-      </c>
-    </row>
-    <row r="2797" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2797">
-        <v>-39.697000000000003</v>
-      </c>
-      <c r="B2797">
-        <v>-9.07</v>
-      </c>
-    </row>
-    <row r="2798" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2798">
-        <v>-37.670999999999999</v>
-      </c>
-      <c r="B2798">
-        <v>-8.3740000000000006</v>
-      </c>
-    </row>
-    <row r="2799" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2799">
-        <v>-34.741</v>
-      </c>
-      <c r="B2799">
-        <v>-8.2279999999999998</v>
-      </c>
-    </row>
-    <row r="2800" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2800">
-        <v>-31.786999999999999</v>
-      </c>
-      <c r="B2800">
-        <v>-7.5069999999999997</v>
-      </c>
-    </row>
-    <row r="2801" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2801">
-        <v>-25.207999999999998</v>
-      </c>
-      <c r="B2801">
-        <v>-7.3120000000000003</v>
-      </c>
-    </row>
-    <row r="2802" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2802">
-        <v>-19.152999999999999</v>
-      </c>
-      <c r="B2802">
-        <v>-9.2409999999999997</v>
-      </c>
-    </row>
-    <row r="2803" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2803">
-        <v>-13.305999999999999</v>
-      </c>
-      <c r="B2803">
-        <v>-8.85</v>
-      </c>
-    </row>
-    <row r="2804" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2804">
-        <v>-9.2899999999999991</v>
-      </c>
-      <c r="B2804">
-        <v>-8.7279999999999998</v>
-      </c>
-    </row>
-    <row r="2805" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2805">
-        <v>-4.431</v>
-      </c>
-      <c r="B2805">
-        <v>-8.8010000000000002</v>
-      </c>
-    </row>
-    <row r="2806" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2806">
-        <v>-3.6379999999999999</v>
-      </c>
-      <c r="B2806">
-        <v>-8.9109999999999996</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
